--- a/VAC Prelim 2.0/Chapter-5/figs/MedaHystereticDamping.xlsx
+++ b/VAC Prelim 2.0/Chapter-5/figs/MedaHystereticDamping.xlsx
@@ -1,23 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ConditionDependentPBEE\Thesis\VAC Prelim 2.0\Chapter-5\figs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ConditionDepedentPBEE\Thesis\VAC Prelim 2.0\Chapter-5\figs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F2FCC4-4F00-4092-8B0D-CAB132173466}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="774" yWindow="360" windowWidth="20748" windowHeight="11082" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -158,9 +168,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -299,38 +309,38 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -838,7 +848,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1103,7 +1112,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1218,7 +1226,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2502,7 +2509,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2532,7 +2545,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2562,7 +2581,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2589,16 +2614,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A82:D88" totalsRowShown="0">
-  <autoFilter ref="A82:D88"/>
-  <sortState ref="A56:D61">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A82:D88" totalsRowShown="0">
+  <autoFilter ref="A82:D88" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A56:D61">
     <sortCondition ref="C55:C61"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" name="CL"/>
-    <tableColumn id="2" name="mu"/>
-    <tableColumn id="3" name="ALR" dataDxfId="0"/>
-    <tableColumn id="4" name="Xi"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="CL"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="mu"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="ALR" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Xi"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2866,11 +2891,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="J74" sqref="J74"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2893,16 +2918,16 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8" t="s">
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3" t="s">
@@ -3365,30 +3390,30 @@
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8" t="s">
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8" t="s">
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8" t="s">
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
       <c r="Q25" s="2"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -3421,9 +3446,9 @@
         <v>5</v>
       </c>
       <c r="M26" s="3"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="3" t="s">
@@ -3455,9 +3480,9 @@
         <v>19</v>
       </c>
       <c r="M27" s="3"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="3">
@@ -3489,9 +3514,9 @@
         <v>82.5</v>
       </c>
       <c r="M28" s="3"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="3">
@@ -3535,9 +3560,9 @@
         <f>+(L29+L28)/2*(K29-K28)</f>
         <v>2805</v>
       </c>
-      <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="11"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="3">
@@ -3581,9 +3606,9 @@
         <f t="shared" ref="M30:M35" si="7">+(L30+L29)/2*(K30-K29)</f>
         <v>-618.75</v>
       </c>
-      <c r="N30" s="11"/>
-      <c r="O30" s="11"/>
-      <c r="P30" s="11"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="3">
@@ -3627,9 +3652,9 @@
         <f t="shared" si="7"/>
         <v>1400</v>
       </c>
-      <c r="N31" s="11"/>
-      <c r="O31" s="11"/>
-      <c r="P31" s="11"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="3">
@@ -3673,9 +3698,9 @@
         <f t="shared" si="7"/>
         <v>800</v>
       </c>
-      <c r="N32" s="11"/>
-      <c r="O32" s="11"/>
-      <c r="P32" s="11"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="3">
@@ -3719,9 +3744,9 @@
         <f t="shared" si="7"/>
         <v>2100</v>
       </c>
-      <c r="N33" s="11"/>
-      <c r="O33" s="11"/>
-      <c r="P33" s="11"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="3">
@@ -3765,9 +3790,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N34" s="11"/>
-      <c r="O34" s="11"/>
-      <c r="P34" s="11"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="3">
@@ -3811,9 +3836,9 @@
         <f t="shared" si="7"/>
         <v>2310</v>
       </c>
-      <c r="N35" s="11"/>
-      <c r="O35" s="11"/>
-      <c r="P35" s="11"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" t="s">
@@ -3921,7 +3946,7 @@
       </c>
       <c r="F39" s="1">
         <f>+F36/(2*PI()*F37*F38)</f>
-        <v>0.38950330269186179</v>
+        <v>0.38950330269186173</v>
       </c>
       <c r="I39" t="s">
         <v>2</v>
@@ -4016,16 +4041,16 @@
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="8" t="s">
+      <c r="A49" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8" t="s">
+      <c r="B49" s="30"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="30"/>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="3" t="s">
@@ -4042,19 +4067,19 @@
         <v>7</v>
       </c>
       <c r="F50" s="3"/>
-      <c r="G50" s="9" t="s">
+      <c r="G50" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
-      <c r="J50" s="9"/>
-      <c r="K50" s="9"/>
-      <c r="L50" s="9"/>
-      <c r="M50" s="9"/>
-      <c r="N50" s="9"/>
-      <c r="O50" s="9"/>
-      <c r="P50" s="9"/>
-      <c r="Q50" s="9"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="31"/>
+      <c r="J50" s="31"/>
+      <c r="K50" s="31"/>
+      <c r="L50" s="31"/>
+      <c r="M50" s="31"/>
+      <c r="N50" s="31"/>
+      <c r="O50" s="31"/>
+      <c r="P50" s="31"/>
+      <c r="Q50" s="31"/>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="3" t="s">
@@ -4071,17 +4096,17 @@
         <v>19</v>
       </c>
       <c r="F51" s="3"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9"/>
-      <c r="J51" s="9"/>
-      <c r="K51" s="9"/>
-      <c r="L51" s="9"/>
-      <c r="M51" s="9"/>
-      <c r="N51" s="9"/>
-      <c r="O51" s="9"/>
-      <c r="P51" s="9"/>
-      <c r="Q51" s="9"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="31"/>
+      <c r="K51" s="31"/>
+      <c r="L51" s="31"/>
+      <c r="M51" s="31"/>
+      <c r="N51" s="31"/>
+      <c r="O51" s="31"/>
+      <c r="P51" s="31"/>
+      <c r="Q51" s="31"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="3">
@@ -4372,46 +4397,46 @@
       </c>
     </row>
     <row r="70" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="K70" s="12" t="s">
+      <c r="K70" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="L70" s="12"/>
-      <c r="M70" s="12"/>
-      <c r="N70" s="12" t="s">
+      <c r="L70" s="29"/>
+      <c r="M70" s="29"/>
+      <c r="N70" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="O70" s="12"/>
-      <c r="P70" s="12"/>
+      <c r="O70" s="29"/>
+      <c r="P70" s="29"/>
     </row>
     <row r="71" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A71" s="13" t="s">
+      <c r="A71" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B71" s="13" t="s">
+      <c r="B71" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C71" s="13" t="s">
+      <c r="C71" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D71" s="13" t="s">
+      <c r="D71" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E71" s="13" t="s">
+      <c r="E71" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F71" s="13" t="s">
+      <c r="F71" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="G71" s="13" t="s">
+      <c r="G71" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H71" s="13" t="s">
+      <c r="H71" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="I71" s="13" t="s">
+      <c r="I71" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="J71" s="13" t="s">
+      <c r="J71" s="10" t="s">
         <v>26</v>
       </c>
       <c r="K71" t="s">
@@ -4449,39 +4474,39 @@
       </c>
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A72" s="14">
+      <c r="A72" s="11">
         <v>0</v>
       </c>
-      <c r="B72" s="15">
+      <c r="B72" s="12">
         <f>+C16</f>
         <v>10</v>
       </c>
-      <c r="C72" s="16">
+      <c r="C72" s="13">
         <v>0.22</v>
       </c>
-      <c r="D72" s="17">
+      <c r="D72" s="14">
         <f>+C15</f>
         <v>0.31414154243614578</v>
       </c>
-      <c r="E72" s="15">
+      <c r="E72" s="12">
         <v>20</v>
       </c>
-      <c r="F72" s="15">
+      <c r="F72" s="12">
         <v>520</v>
       </c>
-      <c r="G72" s="18">
-        <f>+M72/S72</f>
+      <c r="G72" s="15">
+        <f t="shared" ref="G72:G77" si="10">+M72/S72</f>
         <v>8.9360857702109678E-3</v>
       </c>
-      <c r="H72" s="18">
-        <f>+U72/S72</f>
+      <c r="H72" s="15">
+        <f t="shared" ref="H72:H77" si="11">+U72/S72</f>
         <v>8.9360857702109678E-3</v>
       </c>
-      <c r="I72" s="18">
-        <f>P72/(N72*Q72)</f>
+      <c r="I72" s="15">
+        <f t="shared" ref="I72:I77" si="12">P72/(N72*Q72)</f>
         <v>1.117010721276371E-3</v>
       </c>
-      <c r="J72" s="19">
+      <c r="J72" s="16">
         <f>+R72/Q72</f>
         <v>6</v>
       </c>
@@ -4492,7 +4517,7 @@
         <v>16</v>
       </c>
       <c r="M72">
-        <f>+(0.25*PI()*L72^2)*K72</f>
+        <f t="shared" ref="M72:M77" si="13">+(0.25*PI()*L72^2)*K72</f>
         <v>804.24771931898704</v>
       </c>
       <c r="N72">
@@ -4502,7 +4527,7 @@
         <v>8</v>
       </c>
       <c r="P72">
-        <f>+(2*0.25*PI()*O72^2)</f>
+        <f t="shared" ref="P72:P77" si="14">+(2*0.25*PI()*O72^2)</f>
         <v>100.53096491487338</v>
       </c>
       <c r="Q72">
@@ -4516,48 +4541,48 @@
         <v>90000</v>
       </c>
       <c r="T72">
-        <f>+(1-A72/100)^0.5*L72</f>
+        <f t="shared" ref="T72:T77" si="15">+(1-A72/100)^0.5*L72</f>
         <v>16</v>
       </c>
       <c r="U72">
-        <f>+(0.25*PI()*T72^2)*K72</f>
+        <f t="shared" ref="U72:U77" si="16">+(0.25*PI()*T72^2)*K72</f>
         <v>804.24771931898704</v>
       </c>
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A73" s="20">
+      <c r="A73" s="17">
         <v>0</v>
       </c>
-      <c r="B73" s="21">
+      <c r="B73" s="18">
         <f>+C40</f>
         <v>6.4285714285714288</v>
       </c>
-      <c r="C73" s="22">
+      <c r="C73" s="19">
         <v>0.15</v>
       </c>
-      <c r="D73" s="23">
+      <c r="D73" s="20">
         <f>+C39</f>
         <v>0.44563384065730705</v>
       </c>
-      <c r="E73" s="21">
+      <c r="E73" s="18">
         <v>32.4</v>
       </c>
-      <c r="F73" s="21">
+      <c r="F73" s="18">
         <v>373.2</v>
       </c>
-      <c r="G73" s="24">
-        <f>+M73/S73</f>
+      <c r="G73" s="21">
+        <f t="shared" si="10"/>
         <v>2.2721893491124259E-2</v>
       </c>
-      <c r="H73" s="24">
-        <f>+U73/S73</f>
+      <c r="H73" s="21">
+        <f t="shared" si="11"/>
         <v>2.2721893491124259E-2</v>
       </c>
-      <c r="I73" s="24">
-        <f>P73/(N73*Q73)</f>
+      <c r="I73" s="21">
+        <f t="shared" si="12"/>
         <v>3.8665755736489761E-3</v>
       </c>
-      <c r="J73" s="25">
+      <c r="J73" s="22">
         <v>3.15</v>
       </c>
       <c r="K73">
@@ -4567,7 +4592,7 @@
         <v>16</v>
       </c>
       <c r="M73">
-        <f>+(0.25*PI()*L73^2)*K73</f>
+        <f t="shared" si="13"/>
         <v>1206.3715789784806</v>
       </c>
       <c r="N73">
@@ -4577,7 +4602,7 @@
         <v>8</v>
       </c>
       <c r="P73">
-        <f>+(2*0.25*PI()*O73^2)</f>
+        <f t="shared" si="14"/>
         <v>100.53096491487338</v>
       </c>
       <c r="Q73">
@@ -4591,47 +4616,47 @@
         <v>53092.915845667507</v>
       </c>
       <c r="T73">
-        <f>+(1-A73/100)^0.5*L73</f>
+        <f t="shared" si="15"/>
         <v>16</v>
       </c>
       <c r="U73">
-        <f>+(0.25*PI()*T73^2)*K73</f>
+        <f t="shared" si="16"/>
         <v>1206.3715789784806</v>
       </c>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A74" s="20">
+      <c r="A74" s="17">
         <v>0</v>
       </c>
-      <c r="B74" s="21">
+      <c r="B74" s="18">
         <v>9</v>
       </c>
-      <c r="C74" s="22">
+      <c r="C74" s="19">
         <v>0.25</v>
       </c>
-      <c r="D74" s="23">
+      <c r="D74" s="20">
         <f>+M39</f>
         <v>0.27806565646594111</v>
       </c>
-      <c r="E74" s="21">
+      <c r="E74" s="18">
         <v>32.4</v>
       </c>
-      <c r="F74" s="21">
+      <c r="F74" s="18">
         <v>373.2</v>
       </c>
-      <c r="G74" s="24">
-        <f>+M74/S74</f>
+      <c r="G74" s="21">
+        <f t="shared" si="10"/>
         <v>2.2721893491124259E-2</v>
       </c>
-      <c r="H74" s="24">
-        <f>+U74/S74</f>
+      <c r="H74" s="21">
+        <f t="shared" si="11"/>
         <v>2.2721893491124259E-2</v>
       </c>
-      <c r="I74" s="24">
-        <f>P74/(N74*Q74)</f>
+      <c r="I74" s="21">
+        <f t="shared" si="12"/>
         <v>3.8665755736489761E-3</v>
       </c>
-      <c r="J74" s="25">
+      <c r="J74" s="22">
         <v>3.15</v>
       </c>
       <c r="K74">
@@ -4641,7 +4666,7 @@
         <v>16</v>
       </c>
       <c r="M74">
-        <f>+(0.25*PI()*L74^2)*K74</f>
+        <f t="shared" si="13"/>
         <v>1206.3715789784806</v>
       </c>
       <c r="N74">
@@ -4651,7 +4676,7 @@
         <v>8</v>
       </c>
       <c r="P74">
-        <f>+(2*0.25*PI()*O74^2)</f>
+        <f t="shared" si="14"/>
         <v>100.53096491487338</v>
       </c>
       <c r="Q74">
@@ -4665,48 +4690,48 @@
         <v>53092.915845667507</v>
       </c>
       <c r="T74">
-        <f>+(1-A74/100)^0.5*L74</f>
+        <f t="shared" si="15"/>
         <v>16</v>
       </c>
       <c r="U74">
-        <f>+(0.25*PI()*T74^2)*K74</f>
+        <f t="shared" si="16"/>
         <v>1206.3715789784806</v>
       </c>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A75" s="20">
+      <c r="A75" s="17">
         <v>20</v>
       </c>
-      <c r="B75" s="21">
+      <c r="B75" s="18">
         <f>+F20</f>
         <v>5</v>
       </c>
-      <c r="C75" s="22">
+      <c r="C75" s="19">
         <v>0.22</v>
       </c>
-      <c r="D75" s="23">
+      <c r="D75" s="20">
         <f>+F19</f>
         <v>0.24215770580438603</v>
       </c>
-      <c r="E75" s="21">
+      <c r="E75" s="18">
         <v>20</v>
       </c>
-      <c r="F75" s="21">
+      <c r="F75" s="18">
         <v>520</v>
       </c>
-      <c r="G75" s="24">
-        <f>+M75/S75</f>
+      <c r="G75" s="21">
+        <f t="shared" si="10"/>
         <v>8.9360857702109678E-3</v>
       </c>
-      <c r="H75" s="24">
-        <f>+U75/S75</f>
+      <c r="H75" s="21">
+        <f t="shared" si="11"/>
         <v>7.1488686161687741E-3</v>
       </c>
-      <c r="I75" s="24">
-        <f>P75/(N75*Q75)</f>
+      <c r="I75" s="21">
+        <f t="shared" si="12"/>
         <v>1.117010721276371E-3</v>
       </c>
-      <c r="J75" s="25">
+      <c r="J75" s="22">
         <f>+R75/Q75</f>
         <v>6</v>
       </c>
@@ -4717,7 +4742,7 @@
         <v>16</v>
       </c>
       <c r="M75">
-        <f>+(0.25*PI()*L75^2)*K75</f>
+        <f t="shared" si="13"/>
         <v>804.24771931898704</v>
       </c>
       <c r="N75">
@@ -4727,7 +4752,7 @@
         <v>8</v>
       </c>
       <c r="P75">
-        <f>+(2*0.25*PI()*O75^2)</f>
+        <f t="shared" si="14"/>
         <v>100.53096491487338</v>
       </c>
       <c r="Q75">
@@ -4741,48 +4766,48 @@
         <v>90000</v>
       </c>
       <c r="T75">
-        <f>+(1-A75/100)^0.5*L75</f>
+        <f t="shared" si="15"/>
         <v>14.310835055998654</v>
       </c>
       <c r="U75">
-        <f>+(0.25*PI()*T75^2)*K75</f>
+        <f t="shared" si="16"/>
         <v>643.39817545518963</v>
       </c>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A76" s="20">
+      <c r="A76" s="17">
         <v>9.5</v>
       </c>
-      <c r="B76" s="21">
+      <c r="B76" s="18">
         <f>+F40</f>
         <v>5.7142857142857144</v>
       </c>
-      <c r="C76" s="22">
+      <c r="C76" s="19">
         <v>0.15</v>
       </c>
-      <c r="D76" s="23">
+      <c r="D76" s="20">
         <f>+F39</f>
-        <v>0.38950330269186179</v>
-      </c>
-      <c r="E76" s="21">
+        <v>0.38950330269186173</v>
+      </c>
+      <c r="E76" s="18">
         <v>32.4</v>
       </c>
-      <c r="F76" s="21">
+      <c r="F76" s="18">
         <v>373.2</v>
       </c>
-      <c r="G76" s="24">
-        <f>+M76/S76</f>
+      <c r="G76" s="21">
+        <f t="shared" si="10"/>
         <v>2.2721893491124259E-2</v>
       </c>
-      <c r="H76" s="24">
-        <f>+U76/S76</f>
+      <c r="H76" s="21">
+        <f t="shared" si="11"/>
         <v>2.0563313609467455E-2</v>
       </c>
-      <c r="I76" s="24">
-        <f>P76/(N76*Q76)</f>
+      <c r="I76" s="21">
+        <f t="shared" si="12"/>
         <v>3.8665755736489761E-3</v>
       </c>
-      <c r="J76" s="25">
+      <c r="J76" s="22">
         <v>3.15</v>
       </c>
       <c r="K76">
@@ -4792,7 +4817,7 @@
         <v>16</v>
       </c>
       <c r="M76">
-        <f>+(0.25*PI()*L76^2)*K76</f>
+        <f t="shared" si="13"/>
         <v>1206.3715789784806</v>
       </c>
       <c r="N76">
@@ -4802,7 +4827,7 @@
         <v>8</v>
       </c>
       <c r="P76">
-        <f>+(2*0.25*PI()*O76^2)</f>
+        <f t="shared" si="14"/>
         <v>100.53096491487338</v>
       </c>
       <c r="Q76">
@@ -4816,47 +4841,47 @@
         <v>53092.915845667507</v>
       </c>
       <c r="T76">
-        <f>+(1-A76/100)^0.5*L76</f>
+        <f t="shared" si="15"/>
         <v>15.221038072352359</v>
       </c>
       <c r="U76">
-        <f>+(0.25*PI()*T76^2)*K76</f>
+        <f t="shared" si="16"/>
         <v>1091.766278975525</v>
       </c>
     </row>
     <row r="77" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A77" s="26">
+      <c r="A77" s="23">
         <v>9.6999999999999993</v>
       </c>
-      <c r="B77" s="27">
+      <c r="B77" s="24">
         <v>6</v>
       </c>
-      <c r="C77" s="28">
+      <c r="C77" s="25">
         <v>0.25</v>
       </c>
-      <c r="D77" s="29">
+      <c r="D77" s="26">
         <f>+J40</f>
         <v>0.26235697650304624</v>
       </c>
-      <c r="E77" s="27">
+      <c r="E77" s="24">
         <v>32.4</v>
       </c>
-      <c r="F77" s="27">
+      <c r="F77" s="24">
         <v>373.2</v>
       </c>
-      <c r="G77" s="30">
-        <f>+M77/S77</f>
+      <c r="G77" s="27">
+        <f t="shared" si="10"/>
         <v>2.2721893491124259E-2</v>
       </c>
-      <c r="H77" s="30">
-        <f>+U77/S77</f>
+      <c r="H77" s="27">
+        <f t="shared" si="11"/>
         <v>2.0517869822485209E-2</v>
       </c>
-      <c r="I77" s="30">
-        <f>P77/(N77*Q77)</f>
+      <c r="I77" s="27">
+        <f t="shared" si="12"/>
         <v>3.8665755736489761E-3</v>
       </c>
-      <c r="J77" s="31">
+      <c r="J77" s="28">
         <v>3.15</v>
       </c>
       <c r="K77">
@@ -4866,7 +4891,7 @@
         <v>16</v>
       </c>
       <c r="M77">
-        <f>+(0.25*PI()*L77^2)*K77</f>
+        <f t="shared" si="13"/>
         <v>1206.3715789784806</v>
       </c>
       <c r="N77">
@@ -4876,7 +4901,7 @@
         <v>8</v>
       </c>
       <c r="P77">
-        <f>+(2*0.25*PI()*O77^2)</f>
+        <f t="shared" si="14"/>
         <v>100.53096491487338</v>
       </c>
       <c r="Q77">
@@ -4890,11 +4915,11 @@
         <v>53092.915845667507</v>
       </c>
       <c r="T77">
-        <f>+(1-A77/100)^0.5*L77</f>
+        <f t="shared" si="15"/>
         <v>15.204209943301889</v>
       </c>
       <c r="U77">
-        <f>+(0.25*PI()*T77^2)*K77</f>
+        <f t="shared" si="16"/>
         <v>1089.3535358175682</v>
       </c>
     </row>
@@ -4999,17 +5024,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="K25:M25"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:J25"/>
     <mergeCell ref="K70:M70"/>
     <mergeCell ref="N70:P70"/>
     <mergeCell ref="A49:C49"/>
     <mergeCell ref="D49:F49"/>
     <mergeCell ref="G50:Q51"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="K25:M25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/VAC Prelim 2.0/Chapter-5/figs/MedaHystereticDamping.xlsx
+++ b/VAC Prelim 2.0/Chapter-5/figs/MedaHystereticDamping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ConditionDepedentPBEE\Thesis\VAC Prelim 2.0\Chapter-5\figs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F2FCC4-4F00-4092-8B0D-CAB132173466}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F799B2C1-64C2-4D6E-BF4F-85EF65796C01}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="774" yWindow="360" windowWidth="20748" windowHeight="11082" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -172,7 +172,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,6 +210,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -313,34 +319,34 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="5" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="5" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="5" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="5" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="5" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2895,7 +2901,7 @@
   <dimension ref="A1:U88"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="D85" sqref="D85"/>
+      <selection activeCell="A71" sqref="A71:J77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2918,16 +2924,16 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3" t="s">
@@ -3390,27 +3396,27 @@
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="30" t="s">
+      <c r="A25" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30" t="s">
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30" t="s">
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30" t="s">
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="L25" s="30"/>
-      <c r="M25" s="30"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
       <c r="N25" s="8"/>
       <c r="O25" s="8"/>
       <c r="P25" s="8"/>
@@ -4041,16 +4047,16 @@
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="30" t="s">
+      <c r="A49" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B49" s="30"/>
-      <c r="C49" s="30"/>
-      <c r="D49" s="30" t="s">
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E49" s="30"/>
-      <c r="F49" s="30"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="3" t="s">
@@ -4067,19 +4073,19 @@
         <v>7</v>
       </c>
       <c r="F50" s="3"/>
-      <c r="G50" s="31" t="s">
+      <c r="G50" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="H50" s="31"/>
-      <c r="I50" s="31"/>
-      <c r="J50" s="31"/>
-      <c r="K50" s="31"/>
-      <c r="L50" s="31"/>
-      <c r="M50" s="31"/>
-      <c r="N50" s="31"/>
-      <c r="O50" s="31"/>
-      <c r="P50" s="31"/>
-      <c r="Q50" s="31"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="12"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="12"/>
+      <c r="M50" s="12"/>
+      <c r="N50" s="12"/>
+      <c r="O50" s="12"/>
+      <c r="P50" s="12"/>
+      <c r="Q50" s="12"/>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="3" t="s">
@@ -4096,17 +4102,17 @@
         <v>19</v>
       </c>
       <c r="F51" s="3"/>
-      <c r="G51" s="31"/>
-      <c r="H51" s="31"/>
-      <c r="I51" s="31"/>
-      <c r="J51" s="31"/>
-      <c r="K51" s="31"/>
-      <c r="L51" s="31"/>
-      <c r="M51" s="31"/>
-      <c r="N51" s="31"/>
-      <c r="O51" s="31"/>
-      <c r="P51" s="31"/>
-      <c r="Q51" s="31"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="12"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="12"/>
+      <c r="M51" s="12"/>
+      <c r="N51" s="12"/>
+      <c r="O51" s="12"/>
+      <c r="P51" s="12"/>
+      <c r="Q51" s="12"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="3">
@@ -4397,46 +4403,46 @@
       </c>
     </row>
     <row r="70" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="K70" s="29" t="s">
+      <c r="K70" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="L70" s="29"/>
-      <c r="M70" s="29"/>
-      <c r="N70" s="29" t="s">
+      <c r="L70" s="11"/>
+      <c r="M70" s="11"/>
+      <c r="N70" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="O70" s="29"/>
-      <c r="P70" s="29"/>
+      <c r="O70" s="11"/>
+      <c r="P70" s="11"/>
     </row>
     <row r="71" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A71" s="10" t="s">
+      <c r="A71" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B71" s="10" t="s">
+      <c r="B71" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C71" s="10" t="s">
+      <c r="C71" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D71" s="10" t="s">
+      <c r="D71" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E71" s="10" t="s">
+      <c r="E71" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F71" s="10" t="s">
+      <c r="F71" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G71" s="10" t="s">
+      <c r="G71" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="H71" s="10" t="s">
+      <c r="H71" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="I71" s="10" t="s">
+      <c r="I71" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="J71" s="10" t="s">
+      <c r="J71" s="13" t="s">
         <v>26</v>
       </c>
       <c r="K71" t="s">
@@ -4474,39 +4480,39 @@
       </c>
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A72" s="11">
+      <c r="A72" s="14">
         <v>0</v>
       </c>
-      <c r="B72" s="12">
+      <c r="B72" s="15">
         <f>+C16</f>
         <v>10</v>
       </c>
-      <c r="C72" s="13">
+      <c r="C72" s="16">
         <v>0.22</v>
       </c>
-      <c r="D72" s="14">
+      <c r="D72" s="17">
         <f>+C15</f>
         <v>0.31414154243614578</v>
       </c>
-      <c r="E72" s="12">
+      <c r="E72" s="15">
         <v>20</v>
       </c>
-      <c r="F72" s="12">
+      <c r="F72" s="15">
         <v>520</v>
       </c>
-      <c r="G72" s="15">
+      <c r="G72" s="18">
         <f t="shared" ref="G72:G77" si="10">+M72/S72</f>
         <v>8.9360857702109678E-3</v>
       </c>
-      <c r="H72" s="15">
+      <c r="H72" s="18">
         <f t="shared" ref="H72:H77" si="11">+U72/S72</f>
         <v>8.9360857702109678E-3</v>
       </c>
-      <c r="I72" s="15">
+      <c r="I72" s="18">
         <f t="shared" ref="I72:I77" si="12">P72/(N72*Q72)</f>
         <v>1.117010721276371E-3</v>
       </c>
-      <c r="J72" s="16">
+      <c r="J72" s="19">
         <f>+R72/Q72</f>
         <v>6</v>
       </c>
@@ -4550,39 +4556,39 @@
       </c>
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A73" s="17">
+      <c r="A73" s="20">
         <v>0</v>
       </c>
-      <c r="B73" s="18">
+      <c r="B73" s="21">
         <f>+C40</f>
         <v>6.4285714285714288</v>
       </c>
-      <c r="C73" s="19">
+      <c r="C73" s="22">
         <v>0.15</v>
       </c>
-      <c r="D73" s="20">
+      <c r="D73" s="23">
         <f>+C39</f>
         <v>0.44563384065730705</v>
       </c>
-      <c r="E73" s="18">
+      <c r="E73" s="21">
         <v>32.4</v>
       </c>
-      <c r="F73" s="18">
+      <c r="F73" s="21">
         <v>373.2</v>
       </c>
-      <c r="G73" s="21">
+      <c r="G73" s="24">
         <f t="shared" si="10"/>
         <v>2.2721893491124259E-2</v>
       </c>
-      <c r="H73" s="21">
+      <c r="H73" s="24">
         <f t="shared" si="11"/>
         <v>2.2721893491124259E-2</v>
       </c>
-      <c r="I73" s="21">
+      <c r="I73" s="24">
         <f t="shared" si="12"/>
         <v>3.8665755736489761E-3</v>
       </c>
-      <c r="J73" s="22">
+      <c r="J73" s="25">
         <v>3.15</v>
       </c>
       <c r="K73">
@@ -4625,38 +4631,38 @@
       </c>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A74" s="17">
+      <c r="A74" s="20">
         <v>0</v>
       </c>
-      <c r="B74" s="18">
+      <c r="B74" s="21">
         <v>9</v>
       </c>
-      <c r="C74" s="19">
+      <c r="C74" s="22">
         <v>0.25</v>
       </c>
-      <c r="D74" s="20">
+      <c r="D74" s="23">
         <f>+M39</f>
         <v>0.27806565646594111</v>
       </c>
-      <c r="E74" s="18">
+      <c r="E74" s="21">
         <v>32.4</v>
       </c>
-      <c r="F74" s="18">
+      <c r="F74" s="21">
         <v>373.2</v>
       </c>
-      <c r="G74" s="21">
+      <c r="G74" s="24">
         <f t="shared" si="10"/>
         <v>2.2721893491124259E-2</v>
       </c>
-      <c r="H74" s="21">
+      <c r="H74" s="24">
         <f t="shared" si="11"/>
         <v>2.2721893491124259E-2</v>
       </c>
-      <c r="I74" s="21">
+      <c r="I74" s="24">
         <f t="shared" si="12"/>
         <v>3.8665755736489761E-3</v>
       </c>
-      <c r="J74" s="22">
+      <c r="J74" s="25">
         <v>3.15</v>
       </c>
       <c r="K74">
@@ -4699,39 +4705,39 @@
       </c>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A75" s="17">
+      <c r="A75" s="20">
         <v>20</v>
       </c>
-      <c r="B75" s="18">
+      <c r="B75" s="21">
         <f>+F20</f>
         <v>5</v>
       </c>
-      <c r="C75" s="19">
+      <c r="C75" s="22">
         <v>0.22</v>
       </c>
-      <c r="D75" s="20">
+      <c r="D75" s="23">
         <f>+F19</f>
         <v>0.24215770580438603</v>
       </c>
-      <c r="E75" s="18">
+      <c r="E75" s="21">
         <v>20</v>
       </c>
-      <c r="F75" s="18">
+      <c r="F75" s="21">
         <v>520</v>
       </c>
-      <c r="G75" s="21">
+      <c r="G75" s="24">
         <f t="shared" si="10"/>
         <v>8.9360857702109678E-3</v>
       </c>
-      <c r="H75" s="21">
+      <c r="H75" s="24">
         <f t="shared" si="11"/>
         <v>7.1488686161687741E-3</v>
       </c>
-      <c r="I75" s="21">
+      <c r="I75" s="24">
         <f t="shared" si="12"/>
         <v>1.117010721276371E-3</v>
       </c>
-      <c r="J75" s="22">
+      <c r="J75" s="25">
         <f>+R75/Q75</f>
         <v>6</v>
       </c>
@@ -4775,39 +4781,39 @@
       </c>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A76" s="17">
+      <c r="A76" s="20">
         <v>9.5</v>
       </c>
-      <c r="B76" s="18">
+      <c r="B76" s="21">
         <f>+F40</f>
         <v>5.7142857142857144</v>
       </c>
-      <c r="C76" s="19">
+      <c r="C76" s="22">
         <v>0.15</v>
       </c>
-      <c r="D76" s="20">
+      <c r="D76" s="23">
         <f>+F39</f>
         <v>0.38950330269186173</v>
       </c>
-      <c r="E76" s="18">
+      <c r="E76" s="21">
         <v>32.4</v>
       </c>
-      <c r="F76" s="18">
+      <c r="F76" s="21">
         <v>373.2</v>
       </c>
-      <c r="G76" s="21">
+      <c r="G76" s="24">
         <f t="shared" si="10"/>
         <v>2.2721893491124259E-2</v>
       </c>
-      <c r="H76" s="21">
+      <c r="H76" s="24">
         <f t="shared" si="11"/>
         <v>2.0563313609467455E-2</v>
       </c>
-      <c r="I76" s="21">
+      <c r="I76" s="24">
         <f t="shared" si="12"/>
         <v>3.8665755736489761E-3</v>
       </c>
-      <c r="J76" s="22">
+      <c r="J76" s="25">
         <v>3.15</v>
       </c>
       <c r="K76">
@@ -4850,38 +4856,38 @@
       </c>
     </row>
     <row r="77" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A77" s="23">
+      <c r="A77" s="26">
         <v>9.6999999999999993</v>
       </c>
-      <c r="B77" s="24">
+      <c r="B77" s="27">
         <v>6</v>
       </c>
-      <c r="C77" s="25">
+      <c r="C77" s="28">
         <v>0.25</v>
       </c>
-      <c r="D77" s="26">
+      <c r="D77" s="29">
         <f>+J40</f>
         <v>0.26235697650304624</v>
       </c>
-      <c r="E77" s="24">
+      <c r="E77" s="27">
         <v>32.4</v>
       </c>
-      <c r="F77" s="24">
+      <c r="F77" s="27">
         <v>373.2</v>
       </c>
-      <c r="G77" s="27">
+      <c r="G77" s="30">
         <f t="shared" si="10"/>
         <v>2.2721893491124259E-2</v>
       </c>
-      <c r="H77" s="27">
+      <c r="H77" s="30">
         <f t="shared" si="11"/>
         <v>2.0517869822485209E-2</v>
       </c>
-      <c r="I77" s="27">
+      <c r="I77" s="30">
         <f t="shared" si="12"/>
         <v>3.8665755736489761E-3</v>
       </c>
-      <c r="J77" s="28">
+      <c r="J77" s="31">
         <v>3.15</v>
       </c>
       <c r="K77">
@@ -5024,17 +5030,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="K70:M70"/>
+    <mergeCell ref="N70:P70"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="G50:Q51"/>
     <mergeCell ref="K25:M25"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="G25:J25"/>
-    <mergeCell ref="K70:M70"/>
-    <mergeCell ref="N70:P70"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="G50:Q51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
